--- a/biology/Botanique/Holarrhena/Holarrhena.xlsx
+++ b/biology/Botanique/Holarrhena/Holarrhena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holarrhena est un genre de plantes à fleurs de la famille des Apocynaceae.
 </t>
@@ -511,31 +523,33 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 juillet 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 juillet 2020) :
 Holarrhena congolensis Stapf
 Holarrhena curtisii King &amp; Gamble
 Holarrhena floribunda (G.Don) T.Durand &amp; Schinz
 Holarrhena mitis (Vahl) R.Br. ex Roem. &amp; Schult.
 Holarrhena pubescens (Buch.-Ham.) Wall. ex G.Don
-Selon GRIN            (1 juillet 2020)[3] :
+Selon GRIN            (1 juillet 2020) :
 Holarrhena floribunda (G. Don) T. Durand &amp; Schinz
 Holarrhena pubescens Wall. ex G. Don
-Selon ITIS      (1 juillet 2020)[4] :
+Selon ITIS      (1 juillet 2020) :
 Holarrhena floribunda T. Durand &amp; Schinz
 Holarrhena pubescens Wall. ex G. Don
-Selon NCBI  (1 juillet 2020)[5] :
+Selon NCBI  (1 juillet 2020) :
 Holarrhena curtisii
 Holarrhena floribunda
 Holarrhena pubescens
-Selon The Plant List            (1 juillet 2020)[6] :
+Selon The Plant List            (1 juillet 2020) :
 Holarrhena congolensis Stapf
 Holarrhena curtisii King &amp; Gamble
 Holarrhena floribunda (G.Don) T.Durand &amp; Schinz
 Holarrhena mitis (Vahl) R.Br. ex Roem. &amp; Schult.
 Holarrhena pubescens Wall. ex G.Don
-Selon Tropicos                                           (1 juillet 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 juillet 2020) (Attention liste brute contenant possiblement des synonymes) :
 Holarrhena affinis Hook. &amp; Arn.
 Holarrhena africana A. DC.
 Holarrhena antidysenterica (L.) Wall.
